--- a/04_memo/memo.xlsx
+++ b/04_memo/memo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\卒業制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A706097-E616-4813-87F8-4F3574D69E89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF4B207-495C-4C6A-B499-9D8CBE20226F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9552" xr2:uid="{EA0F8B15-AEAB-4AE2-B6F2-FA280175178B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9552" activeTab="1" xr2:uid="{EA0F8B15-AEAB-4AE2-B6F2-FA280175178B}"/>
   </bookViews>
   <sheets>
     <sheet name="グリットのスクロール処理メモ" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>X</t>
     <phoneticPr fontId="3"/>
@@ -35,12 +35,19 @@
     <t>↓</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>総数</t>
+    <rPh sb="0" eb="2">
+      <t>ソウスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,8 +87,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,8 +132,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -296,13 +316,130 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -412,6 +549,81 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -730,7 +942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3873A435-FA9E-4182-923B-98E0E9B55239}">
   <dimension ref="A3:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
@@ -1287,256 +1499,2713 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566852B6-B08E-4C58-A8F3-F5FD29A3C094}">
-  <dimension ref="D3:W9"/>
+  <dimension ref="B2:BC47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="11" width="3.19921875" style="1"/>
+    <col min="12" max="12" width="4.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="3.19921875" style="1"/>
+    <col min="19" max="19" width="4.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="3.19921875" style="1"/>
+    <col min="26" max="26" width="4.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="34" width="3.19921875" style="1"/>
+    <col min="35" max="35" width="3.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="41" width="3.19921875" style="1"/>
+    <col min="42" max="42" width="3.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="48" width="3.19921875" style="1"/>
+    <col min="49" max="49" width="3.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="16384" width="3.19921875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="4:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="4:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
-      <c r="E4" s="19"/>
+    <row r="2" spans="2:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="18">
+        <v>0</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="18">
+        <v>1</v>
+      </c>
+      <c r="K3" s="18">
+        <v>1</v>
+      </c>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="18">
+        <v>9</v>
+      </c>
+      <c r="AH3" s="18">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="50"/>
+      <c r="AP3" s="50"/>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="50"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="50"/>
+      <c r="BC3" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="3"/>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="18">
-        <v>1</v>
-      </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="20"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="18">
+        <v>7</v>
+      </c>
+      <c r="M4" s="19"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="18">
-        <v>2</v>
-      </c>
-      <c r="S4" s="19"/>
-      <c r="T4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="18">
+        <v>8</v>
+      </c>
+      <c r="T4" s="19"/>
       <c r="U4" s="20"/>
       <c r="V4" s="20"/>
-      <c r="W4" s="21"/>
-    </row>
-    <row r="5" spans="4:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D5" s="22"/>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
+      <c r="W4" s="20"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="18">
+        <v>9</v>
+      </c>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="4"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="18">
+        <v>37</v>
+      </c>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="21"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="18">
+        <v>28</v>
+      </c>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="20"/>
+      <c r="AS4" s="20"/>
+      <c r="AT4" s="20"/>
+      <c r="AU4" s="21"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="18">
+        <v>19</v>
+      </c>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="20"/>
+      <c r="AZ4" s="20"/>
+      <c r="BA4" s="20"/>
+      <c r="BB4" s="21"/>
+      <c r="BC4" s="4"/>
+    </row>
+    <row r="5" spans="2:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="3"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2"/>
-      <c r="W5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="4:23" x14ac:dyDescent="0.45">
-      <c r="D6" s="23"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="9">
+      <c r="K5" s="3"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2">
+        <v>1</v>
+      </c>
+      <c r="W5" s="2"/>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="4"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="22"/>
+      <c r="AQ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="22"/>
+      <c r="AX5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="4"/>
+    </row>
+    <row r="6" spans="2:55" x14ac:dyDescent="0.45">
+      <c r="B6" s="3"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="9">
         <v>7</v>
       </c>
-      <c r="G6" s="10">
+      <c r="F6" s="10">
         <v>8</v>
       </c>
-      <c r="H6" s="11">
+      <c r="G6" s="11">
         <v>9</v>
       </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="9">
+      <c r="K6" s="3"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="49">
         <v>7</v>
       </c>
-      <c r="N6" s="10">
+      <c r="O6" s="41">
         <v>8</v>
       </c>
-      <c r="O6" s="11">
+      <c r="P6" s="11">
         <v>9</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="9">
+      <c r="Q6" s="4"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="9">
         <v>7</v>
       </c>
-      <c r="U6" s="10">
+      <c r="V6" s="48">
         <v>8</v>
       </c>
-      <c r="V6" s="11">
+      <c r="W6" s="11">
         <v>9</v>
       </c>
-      <c r="W6" s="4"/>
-    </row>
-    <row r="7" spans="4:23" x14ac:dyDescent="0.45">
-      <c r="D7" s="23"/>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="X6" s="4"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="9">
+        <v>7</v>
+      </c>
+      <c r="AC6" s="41">
+        <v>8</v>
+      </c>
+      <c r="AD6" s="47">
+        <v>9</v>
+      </c>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="49">
+        <v>7</v>
+      </c>
+      <c r="AL6" s="41">
+        <v>8</v>
+      </c>
+      <c r="AM6" s="11">
+        <v>9</v>
+      </c>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="23"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="9">
+        <v>7</v>
+      </c>
+      <c r="AS6" s="48">
+        <v>8</v>
+      </c>
+      <c r="AT6" s="11">
+        <v>9</v>
+      </c>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="23"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="9">
+        <v>7</v>
+      </c>
+      <c r="AZ6" s="41">
+        <v>8</v>
+      </c>
+      <c r="BA6" s="47">
+        <v>9</v>
+      </c>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+    </row>
+    <row r="7" spans="2:55" x14ac:dyDescent="0.45">
+      <c r="B7" s="3"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
         <v>4</v>
       </c>
-      <c r="G7" s="13">
+      <c r="F7" s="13">
         <v>5</v>
       </c>
-      <c r="H7" s="14">
+      <c r="G7" s="14">
         <v>6</v>
       </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
-      <c r="M7" s="26">
+      <c r="K7" s="3"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="26">
         <v>4</v>
       </c>
-      <c r="N7" s="27">
+      <c r="O7" s="27">
         <v>5</v>
       </c>
-      <c r="O7" s="14">
+      <c r="P7" s="14">
         <v>6</v>
       </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="12">
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="12">
         <v>4</v>
       </c>
-      <c r="U7" s="27">
+      <c r="V7" s="27">
         <v>5</v>
       </c>
-      <c r="V7" s="14">
+      <c r="W7" s="14">
         <v>6</v>
       </c>
-      <c r="W7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="4:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D8" s="23"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="15">
-        <v>1</v>
-      </c>
-      <c r="G8" s="16">
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="27">
+        <v>5</v>
+      </c>
+      <c r="AD7" s="37">
+        <v>6</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="4"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="23"/>
+      <c r="AJ7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="26">
+        <v>4</v>
+      </c>
+      <c r="AL7" s="27">
+        <v>5</v>
+      </c>
+      <c r="AM7" s="37">
+        <v>6</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="23"/>
+      <c r="AQ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS7" s="27">
+        <v>5</v>
+      </c>
+      <c r="AT7" s="14">
+        <v>6</v>
+      </c>
+      <c r="AU7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="23"/>
+      <c r="AX7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="26">
+        <v>4</v>
+      </c>
+      <c r="AZ7" s="27">
+        <v>5</v>
+      </c>
+      <c r="BA7" s="37">
+        <v>6</v>
+      </c>
+      <c r="BB7" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="4"/>
+    </row>
+    <row r="8" spans="2:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="3"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16">
         <v>2</v>
       </c>
-      <c r="H8" s="17">
+      <c r="G8" s="17">
         <v>3</v>
       </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="29">
-        <v>1</v>
-      </c>
-      <c r="N8" s="28">
+      <c r="K8" s="3"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="15">
+        <v>1</v>
+      </c>
+      <c r="O8" s="16">
         <v>2</v>
       </c>
-      <c r="O8" s="17">
+      <c r="P8" s="17">
         <v>3</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="15">
-        <v>1</v>
-      </c>
-      <c r="U8" s="30">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="15">
+        <v>1</v>
+      </c>
+      <c r="V8" s="16">
         <v>2</v>
       </c>
-      <c r="V8" s="17">
+      <c r="W8" s="17">
         <v>3</v>
       </c>
-      <c r="W8" s="4"/>
-    </row>
-    <row r="9" spans="4:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D9" s="24"/>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="17">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="23"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="28">
+        <v>2</v>
+      </c>
+      <c r="AM8" s="39">
+        <v>3</v>
+      </c>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="23"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="30">
+        <v>2</v>
+      </c>
+      <c r="AT8" s="17">
+        <v>3</v>
+      </c>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="23"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="29">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="28">
+        <v>2</v>
+      </c>
+      <c r="BA8" s="17">
+        <v>3</v>
+      </c>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+    </row>
+    <row r="9" spans="2:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="3"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="7">
-        <v>1</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7">
-        <v>1</v>
-      </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="7">
-        <v>0</v>
-      </c>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7">
-        <v>1</v>
-      </c>
-      <c r="V9" s="7"/>
-      <c r="W9" s="8">
-        <v>0</v>
-      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="8">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="7">
+        <v>0</v>
+      </c>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7">
+        <v>0</v>
+      </c>
+      <c r="W9" s="7"/>
+      <c r="X9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="4"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="24"/>
+      <c r="AQ9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="24"/>
+      <c r="AX9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="8">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="4"/>
+    </row>
+    <row r="10" spans="2:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="51"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="4"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="4"/>
+    </row>
+    <row r="11" spans="2:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K11" s="3"/>
+      <c r="L11" s="18">
+        <v>4</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="18">
+        <v>5</v>
+      </c>
+      <c r="T11" s="19"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="18">
+        <v>6</v>
+      </c>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="4"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="18">
+        <v>46</v>
+      </c>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="52">
+        <v>-1</v>
+      </c>
+      <c r="AQ11" s="19"/>
+      <c r="AR11" s="20"/>
+      <c r="AS11" s="20"/>
+      <c r="AT11" s="20"/>
+      <c r="AU11" s="21"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="52">
+        <v>-1</v>
+      </c>
+      <c r="AX11" s="19"/>
+      <c r="AY11" s="20"/>
+      <c r="AZ11" s="20"/>
+      <c r="BA11" s="20"/>
+      <c r="BB11" s="21"/>
+      <c r="BC11" s="4"/>
+    </row>
+    <row r="12" spans="2:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54">
+        <f>I3+AF3+BC3+AF26</f>
+        <v>22</v>
+      </c>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="2">
+        <v>1</v>
+      </c>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2">
+        <v>1</v>
+      </c>
+      <c r="W12" s="2"/>
+      <c r="X12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="4"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="22"/>
+      <c r="AQ12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="22"/>
+      <c r="AX12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="4"/>
+    </row>
+    <row r="13" spans="2:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="58"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="9">
+        <v>7</v>
+      </c>
+      <c r="O13" s="10">
+        <v>8</v>
+      </c>
+      <c r="P13" s="11">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="40">
+        <v>7</v>
+      </c>
+      <c r="V13" s="41">
+        <v>8</v>
+      </c>
+      <c r="W13" s="42">
+        <v>9</v>
+      </c>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="9">
+        <v>7</v>
+      </c>
+      <c r="AC13" s="10">
+        <v>8</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>9</v>
+      </c>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="23"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="9">
+        <v>7</v>
+      </c>
+      <c r="AL13" s="10">
+        <v>8</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>9</v>
+      </c>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="23"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="40">
+        <v>7</v>
+      </c>
+      <c r="AS13" s="41">
+        <v>8</v>
+      </c>
+      <c r="AT13" s="42">
+        <v>9</v>
+      </c>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="23"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="9">
+        <v>7</v>
+      </c>
+      <c r="AZ13" s="10">
+        <v>8</v>
+      </c>
+      <c r="BA13" s="11">
+        <v>9</v>
+      </c>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+    </row>
+    <row r="14" spans="2:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="44">
+        <v>4</v>
+      </c>
+      <c r="O14" s="27">
+        <v>5</v>
+      </c>
+      <c r="P14" s="14">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="2">
+        <v>1</v>
+      </c>
+      <c r="U14" s="26">
+        <v>4</v>
+      </c>
+      <c r="V14" s="45">
+        <v>5</v>
+      </c>
+      <c r="W14" s="37">
+        <v>6</v>
+      </c>
+      <c r="X14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="27">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="46">
+        <v>6</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="4"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="23"/>
+      <c r="AJ14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="44">
+        <v>4</v>
+      </c>
+      <c r="AL14" s="27">
+        <v>5</v>
+      </c>
+      <c r="AM14" s="46">
+        <v>6</v>
+      </c>
+      <c r="AN14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="23"/>
+      <c r="AQ14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="26">
+        <v>4</v>
+      </c>
+      <c r="AS14" s="45">
+        <v>5</v>
+      </c>
+      <c r="AT14" s="37">
+        <v>6</v>
+      </c>
+      <c r="AU14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="23"/>
+      <c r="AX14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="26">
+        <v>4</v>
+      </c>
+      <c r="AZ14" s="27">
+        <v>5</v>
+      </c>
+      <c r="BA14" s="46">
+        <v>6</v>
+      </c>
+      <c r="BB14" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC14" s="4"/>
+    </row>
+    <row r="15" spans="2:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="61"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="15">
+        <v>1</v>
+      </c>
+      <c r="O15" s="16">
+        <v>2</v>
+      </c>
+      <c r="P15" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="43">
+        <v>1</v>
+      </c>
+      <c r="V15" s="28">
+        <v>2</v>
+      </c>
+      <c r="W15" s="38">
+        <v>3</v>
+      </c>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="16">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="17">
+        <v>3</v>
+      </c>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="23"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="15">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="16">
+        <v>2</v>
+      </c>
+      <c r="AM15" s="17">
+        <v>3</v>
+      </c>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="23"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="43">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="28">
+        <v>2</v>
+      </c>
+      <c r="AT15" s="38">
+        <v>3</v>
+      </c>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="23"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="15">
+        <v>1</v>
+      </c>
+      <c r="AZ15" s="16">
+        <v>2</v>
+      </c>
+      <c r="BA15" s="17">
+        <v>3</v>
+      </c>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+    </row>
+    <row r="16" spans="2:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K16" s="3"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="8">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="7">
+        <v>1</v>
+      </c>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7">
+        <v>1</v>
+      </c>
+      <c r="W16" s="7"/>
+      <c r="X16" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="4"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="24"/>
+      <c r="AQ16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="7"/>
+      <c r="AS16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="7"/>
+      <c r="AU16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="24"/>
+      <c r="AX16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="7"/>
+      <c r="AZ16" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="7"/>
+      <c r="BB16" s="8">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="4"/>
+    </row>
+    <row r="17" spans="11:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K17" s="3"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="4"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="4"/>
+    </row>
+    <row r="18" spans="11:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K18" s="3"/>
+      <c r="L18" s="18">
+        <v>1</v>
+      </c>
+      <c r="M18" s="19"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="18">
+        <v>2</v>
+      </c>
+      <c r="T18" s="19"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="18">
+        <v>3</v>
+      </c>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="4"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="52">
+        <v>-1</v>
+      </c>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="20"/>
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="20"/>
+      <c r="AN18" s="21"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="52">
+        <v>-1</v>
+      </c>
+      <c r="AQ18" s="19"/>
+      <c r="AR18" s="20"/>
+      <c r="AS18" s="20"/>
+      <c r="AT18" s="20"/>
+      <c r="AU18" s="21"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="52">
+        <v>-1</v>
+      </c>
+      <c r="AX18" s="19"/>
+      <c r="AY18" s="20"/>
+      <c r="AZ18" s="20"/>
+      <c r="BA18" s="20"/>
+      <c r="BB18" s="21"/>
+      <c r="BC18" s="4"/>
+    </row>
+    <row r="19" spans="11:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K19" s="3"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="2">
+        <v>0</v>
+      </c>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2"/>
+      <c r="X19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="4"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="22"/>
+      <c r="AQ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="22"/>
+      <c r="AX19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="4"/>
+    </row>
+    <row r="20" spans="11:55" x14ac:dyDescent="0.45">
+      <c r="K20" s="3"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="9">
+        <v>7</v>
+      </c>
+      <c r="O20" s="10">
+        <v>8</v>
+      </c>
+      <c r="P20" s="11">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="9">
+        <v>7</v>
+      </c>
+      <c r="V20" s="10">
+        <v>8</v>
+      </c>
+      <c r="W20" s="11">
+        <v>9</v>
+      </c>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="9">
+        <v>7</v>
+      </c>
+      <c r="AC20" s="10">
+        <v>8</v>
+      </c>
+      <c r="AD20" s="11">
+        <v>9</v>
+      </c>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="23"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="9">
+        <v>7</v>
+      </c>
+      <c r="AL20" s="41">
+        <v>8</v>
+      </c>
+      <c r="AM20" s="47">
+        <v>9</v>
+      </c>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="23"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="9">
+        <v>7</v>
+      </c>
+      <c r="AS20" s="48">
+        <v>8</v>
+      </c>
+      <c r="AT20" s="11">
+        <v>9</v>
+      </c>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="23"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="49">
+        <v>7</v>
+      </c>
+      <c r="AZ20" s="41">
+        <v>8</v>
+      </c>
+      <c r="BA20" s="11">
+        <v>9</v>
+      </c>
+      <c r="BB20" s="4"/>
+      <c r="BC20" s="4"/>
+    </row>
+    <row r="21" spans="11:55" x14ac:dyDescent="0.45">
+      <c r="K21" s="3"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="2">
+        <v>1</v>
+      </c>
+      <c r="N21" s="26">
+        <v>4</v>
+      </c>
+      <c r="O21" s="27">
+        <v>5</v>
+      </c>
+      <c r="P21" s="14">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="2">
+        <v>0</v>
+      </c>
+      <c r="U21" s="12">
+        <v>4</v>
+      </c>
+      <c r="V21" s="27">
+        <v>5</v>
+      </c>
+      <c r="W21" s="14">
+        <v>6</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="27">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="37">
+        <v>6</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="4"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="23"/>
+      <c r="AJ21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="26">
+        <v>4</v>
+      </c>
+      <c r="AL21" s="27">
+        <v>5</v>
+      </c>
+      <c r="AM21" s="37">
+        <v>6</v>
+      </c>
+      <c r="AN21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="23"/>
+      <c r="AQ21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS21" s="27">
+        <v>5</v>
+      </c>
+      <c r="AT21" s="14">
+        <v>6</v>
+      </c>
+      <c r="AU21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="23"/>
+      <c r="AX21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="26">
+        <v>4</v>
+      </c>
+      <c r="AZ21" s="27">
+        <v>5</v>
+      </c>
+      <c r="BA21" s="37">
+        <v>6</v>
+      </c>
+      <c r="BB21" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC21" s="4"/>
+    </row>
+    <row r="22" spans="11:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K22" s="3"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="29">
+        <v>1</v>
+      </c>
+      <c r="O22" s="28">
+        <v>2</v>
+      </c>
+      <c r="P22" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="15">
+        <v>1</v>
+      </c>
+      <c r="V22" s="30">
+        <v>2</v>
+      </c>
+      <c r="W22" s="17">
+        <v>3</v>
+      </c>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="28">
+        <v>2</v>
+      </c>
+      <c r="AD22" s="39">
+        <v>3</v>
+      </c>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="23"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="28">
+        <v>2</v>
+      </c>
+      <c r="AM22" s="17">
+        <v>3</v>
+      </c>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="23"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="15">
+        <v>1</v>
+      </c>
+      <c r="AS22" s="30">
+        <v>2</v>
+      </c>
+      <c r="AT22" s="17">
+        <v>3</v>
+      </c>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="23"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="15">
+        <v>1</v>
+      </c>
+      <c r="AZ22" s="28">
+        <v>2</v>
+      </c>
+      <c r="BA22" s="39">
+        <v>3</v>
+      </c>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+    </row>
+    <row r="23" spans="11:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K23" s="3"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="7">
+        <v>1</v>
+      </c>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7">
+        <v>1</v>
+      </c>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="8">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="7">
+        <v>0</v>
+      </c>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7">
+        <v>1</v>
+      </c>
+      <c r="W23" s="7"/>
+      <c r="X23" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="4"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="24"/>
+      <c r="AJ23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="24"/>
+      <c r="AQ23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="7"/>
+      <c r="AS23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="7"/>
+      <c r="AU23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="24"/>
+      <c r="AX23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="7"/>
+      <c r="AZ23" s="7">
+        <v>1</v>
+      </c>
+      <c r="BA23" s="7"/>
+      <c r="BB23" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC23" s="4"/>
+    </row>
+    <row r="24" spans="11:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K24" s="51"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="8"/>
+      <c r="AH24" s="51"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7"/>
+      <c r="AP24" s="7"/>
+      <c r="AQ24" s="7"/>
+      <c r="AR24" s="7"/>
+      <c r="AS24" s="7"/>
+      <c r="AT24" s="7"/>
+      <c r="AU24" s="7"/>
+      <c r="AV24" s="7"/>
+      <c r="AW24" s="7"/>
+      <c r="AX24" s="7"/>
+      <c r="AY24" s="7"/>
+      <c r="AZ24" s="7"/>
+      <c r="BA24" s="7"/>
+      <c r="BB24" s="7"/>
+      <c r="BC24" s="8"/>
+    </row>
+    <row r="25" spans="11:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="26" spans="11:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K26" s="18">
+        <v>3</v>
+      </c>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="11:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K27" s="3"/>
+      <c r="L27" s="18">
+        <v>179</v>
+      </c>
+      <c r="M27" s="19"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="18">
+        <v>789</v>
+      </c>
+      <c r="T27" s="19"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="18">
+        <v>379</v>
+      </c>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="4"/>
+    </row>
+    <row r="28" spans="11:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K28" s="3"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="2">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2">
+        <v>1</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="4">
+        <v>0</v>
+      </c>
+      <c r="R28" s="2"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="2">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2">
+        <v>1</v>
+      </c>
+      <c r="W28" s="2"/>
+      <c r="X28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="4"/>
+    </row>
+    <row r="29" spans="11:55" x14ac:dyDescent="0.45">
+      <c r="K29" s="3"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="49">
+        <v>7</v>
+      </c>
+      <c r="O29" s="41">
+        <v>8</v>
+      </c>
+      <c r="P29" s="47">
+        <v>9</v>
+      </c>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="49">
+        <v>7</v>
+      </c>
+      <c r="V29" s="48">
+        <v>8</v>
+      </c>
+      <c r="W29" s="47">
+        <v>9</v>
+      </c>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="49">
+        <v>7</v>
+      </c>
+      <c r="AC29" s="41">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="47">
+        <v>9</v>
+      </c>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+    </row>
+    <row r="30" spans="11:55" x14ac:dyDescent="0.45">
+      <c r="K30" s="3"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="2">
+        <v>1</v>
+      </c>
+      <c r="N30" s="26">
+        <v>4</v>
+      </c>
+      <c r="O30" s="27">
+        <v>5</v>
+      </c>
+      <c r="P30" s="37">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="2">
+        <v>0</v>
+      </c>
+      <c r="U30" s="26">
+        <v>4</v>
+      </c>
+      <c r="V30" s="27">
+        <v>5</v>
+      </c>
+      <c r="W30" s="37">
+        <v>6</v>
+      </c>
+      <c r="X30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="26">
+        <v>4</v>
+      </c>
+      <c r="AC30" s="27">
+        <v>5</v>
+      </c>
+      <c r="AD30" s="37">
+        <v>6</v>
+      </c>
+      <c r="AE30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="4"/>
+    </row>
+    <row r="31" spans="11:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K31" s="3"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="29">
+        <v>1</v>
+      </c>
+      <c r="O31" s="28">
+        <v>2</v>
+      </c>
+      <c r="P31" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="15">
+        <v>1</v>
+      </c>
+      <c r="V31" s="16">
+        <v>2</v>
+      </c>
+      <c r="W31" s="17">
+        <v>3</v>
+      </c>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="28">
+        <v>2</v>
+      </c>
+      <c r="AD31" s="39">
+        <v>3</v>
+      </c>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+    </row>
+    <row r="32" spans="11:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K32" s="3"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7">
+        <v>0</v>
+      </c>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="8">
+        <v>0</v>
+      </c>
+      <c r="R32" s="2"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="7">
+        <v>0</v>
+      </c>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7">
+        <v>0</v>
+      </c>
+      <c r="W32" s="7"/>
+      <c r="X32" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="4"/>
+    </row>
+    <row r="33" spans="11:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K33" s="3"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="4"/>
+    </row>
+    <row r="34" spans="11:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K34" s="3"/>
+      <c r="L34" s="18">
+        <v>147</v>
+      </c>
+      <c r="M34" s="19"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="52">
+        <v>-1</v>
+      </c>
+      <c r="T34" s="19"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="18">
+        <v>369</v>
+      </c>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="21"/>
+      <c r="AF34" s="4"/>
+    </row>
+    <row r="35" spans="11:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K35" s="3"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="4">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="2">
+        <v>1</v>
+      </c>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2">
+        <v>1</v>
+      </c>
+      <c r="W35" s="2"/>
+      <c r="X35" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="4"/>
+    </row>
+    <row r="36" spans="11:32" x14ac:dyDescent="0.45">
+      <c r="K36" s="3"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="49">
+        <v>7</v>
+      </c>
+      <c r="O36" s="41">
+        <v>8</v>
+      </c>
+      <c r="P36" s="11">
+        <v>9</v>
+      </c>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="40">
+        <v>7</v>
+      </c>
+      <c r="V36" s="41">
+        <v>8</v>
+      </c>
+      <c r="W36" s="42">
+        <v>9</v>
+      </c>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="9">
+        <v>7</v>
+      </c>
+      <c r="AC36" s="41">
+        <v>8</v>
+      </c>
+      <c r="AD36" s="47">
+        <v>9</v>
+      </c>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+    </row>
+    <row r="37" spans="11:32" x14ac:dyDescent="0.45">
+      <c r="K37" s="3"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="2">
+        <v>1</v>
+      </c>
+      <c r="N37" s="44">
+        <v>4</v>
+      </c>
+      <c r="O37" s="27">
+        <v>5</v>
+      </c>
+      <c r="P37" s="14">
+        <v>6</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>0</v>
+      </c>
+      <c r="R37" s="2"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="2">
+        <v>1</v>
+      </c>
+      <c r="U37" s="26">
+        <v>4</v>
+      </c>
+      <c r="V37" s="45">
+        <v>5</v>
+      </c>
+      <c r="W37" s="37">
+        <v>6</v>
+      </c>
+      <c r="X37" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC37" s="27">
+        <v>5</v>
+      </c>
+      <c r="AD37" s="46">
+        <v>6</v>
+      </c>
+      <c r="AE37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="4"/>
+    </row>
+    <row r="38" spans="11:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K38" s="3"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="29">
+        <v>1</v>
+      </c>
+      <c r="O38" s="28">
+        <v>2</v>
+      </c>
+      <c r="P38" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="43">
+        <v>1</v>
+      </c>
+      <c r="V38" s="28">
+        <v>2</v>
+      </c>
+      <c r="W38" s="38">
+        <v>3</v>
+      </c>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="28">
+        <v>2</v>
+      </c>
+      <c r="AD38" s="39">
+        <v>3</v>
+      </c>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+    </row>
+    <row r="39" spans="11:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K39" s="3"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7">
+        <v>0</v>
+      </c>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="8">
+        <v>0</v>
+      </c>
+      <c r="R39" s="2"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="7">
+        <v>1</v>
+      </c>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7">
+        <v>1</v>
+      </c>
+      <c r="W39" s="7"/>
+      <c r="X39" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="24"/>
+      <c r="AA39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="4"/>
+    </row>
+    <row r="40" spans="11:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K40" s="3"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="4"/>
+    </row>
+    <row r="41" spans="11:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K41" s="3"/>
+      <c r="L41" s="18">
+        <v>137</v>
+      </c>
+      <c r="M41" s="19"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="18">
+        <v>123</v>
+      </c>
+      <c r="T41" s="19"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="18">
+        <v>139</v>
+      </c>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="20"/>
+      <c r="AE41" s="21"/>
+      <c r="AF41" s="4"/>
+    </row>
+    <row r="42" spans="11:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K42" s="3"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="4">
+        <v>0</v>
+      </c>
+      <c r="R42" s="2"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="2">
+        <v>0</v>
+      </c>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2">
+        <v>0</v>
+      </c>
+      <c r="W42" s="2"/>
+      <c r="X42" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="4"/>
+    </row>
+    <row r="43" spans="11:32" x14ac:dyDescent="0.45">
+      <c r="K43" s="3"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="49">
+        <v>7</v>
+      </c>
+      <c r="O43" s="41">
+        <v>8</v>
+      </c>
+      <c r="P43" s="11">
+        <v>9</v>
+      </c>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="9">
+        <v>7</v>
+      </c>
+      <c r="V43" s="10">
+        <v>8</v>
+      </c>
+      <c r="W43" s="11">
+        <v>9</v>
+      </c>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="23"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="9">
+        <v>7</v>
+      </c>
+      <c r="AC43" s="41">
+        <v>8</v>
+      </c>
+      <c r="AD43" s="47">
+        <v>9</v>
+      </c>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+    </row>
+    <row r="44" spans="11:32" x14ac:dyDescent="0.45">
+      <c r="K44" s="3"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="2">
+        <v>1</v>
+      </c>
+      <c r="N44" s="26">
+        <v>4</v>
+      </c>
+      <c r="O44" s="27">
+        <v>5</v>
+      </c>
+      <c r="P44" s="37">
+        <v>6</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>0</v>
+      </c>
+      <c r="R44" s="2"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="2">
+        <v>0</v>
+      </c>
+      <c r="U44" s="26">
+        <v>4</v>
+      </c>
+      <c r="V44" s="27">
+        <v>5</v>
+      </c>
+      <c r="W44" s="37">
+        <v>6</v>
+      </c>
+      <c r="X44" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="23"/>
+      <c r="AA44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="26">
+        <v>4</v>
+      </c>
+      <c r="AC44" s="27">
+        <v>5</v>
+      </c>
+      <c r="AD44" s="37">
+        <v>6</v>
+      </c>
+      <c r="AE44" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="4"/>
+    </row>
+    <row r="45" spans="11:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K45" s="3"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="29">
+        <v>1</v>
+      </c>
+      <c r="O45" s="28">
+        <v>2</v>
+      </c>
+      <c r="P45" s="39">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="29">
+        <v>1</v>
+      </c>
+      <c r="V45" s="30">
+        <v>2</v>
+      </c>
+      <c r="W45" s="39">
+        <v>3</v>
+      </c>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="23"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="29">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="28">
+        <v>2</v>
+      </c>
+      <c r="AD45" s="39">
+        <v>3</v>
+      </c>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+    </row>
+    <row r="46" spans="11:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K46" s="3"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="7">
+        <v>1</v>
+      </c>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7">
+        <v>1</v>
+      </c>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="8">
+        <v>0</v>
+      </c>
+      <c r="R46" s="2"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="7">
+        <v>0</v>
+      </c>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7">
+        <v>1</v>
+      </c>
+      <c r="W46" s="7"/>
+      <c r="X46" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="24"/>
+      <c r="AA46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="4"/>
+    </row>
+    <row r="47" spans="11:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K47" s="51"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="B13:E13"/>
+  </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/04_memo/memo.xlsx
+++ b/04_memo/memo.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\卒業制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF4B207-495C-4C6A-B499-9D8CBE20226F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BED5BC-F908-4CBF-A8C5-DC329DFAF6B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9552" activeTab="1" xr2:uid="{EA0F8B15-AEAB-4AE2-B6F2-FA280175178B}"/>
   </bookViews>
   <sheets>
     <sheet name="グリットのスクロール処理メモ" sheetId="1" r:id="rId1"/>
-    <sheet name="ブロックの地形変更の総数メモ" sheetId="2" r:id="rId2"/>
+    <sheet name="傾くときに動くブロック" sheetId="3" r:id="rId2"/>
+    <sheet name="ブロックの地形変更の総数メモ" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>X</t>
     <phoneticPr fontId="3"/>
@@ -39,6 +40,31 @@
     <t>総数</t>
     <rPh sb="0" eb="2">
       <t>ソウスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ブロック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レール</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>4方向にboolを持つレール。
+Trueのレールを伸ばして生成</t>
+    <rPh sb="1" eb="3">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セイセイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -95,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,6 +164,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -439,7 +471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -548,57 +580,57 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -608,23 +640,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -942,7 +1001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3873A435-FA9E-4182-923B-98E0E9B55239}">
   <dimension ref="A3:W31"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
@@ -1039,10 +1098,10 @@
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
-      <c r="N8" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="O8" s="36"/>
+      <c r="N8" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="52"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
       <c r="R8" s="25"/>
@@ -1103,10 +1162,10 @@
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
-      <c r="N10" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="O10" s="36"/>
+      <c r="N10" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="52"/>
       <c r="P10" s="25"/>
       <c r="Q10" s="25"/>
       <c r="R10" s="25"/>
@@ -1498,10 +1557,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B93924F-3143-4140-9103-EB813ABFDA17}">
+  <dimension ref="C2:T14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="3.19921875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C2" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+    </row>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C3" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="64"/>
+    </row>
+    <row r="4" spans="3:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="D5" s="65"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="66"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="66"/>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="D6" s="3"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="4"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="4"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="4"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="D8" s="3"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="4"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+    </row>
+    <row r="9" spans="3:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D9" s="50"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="3:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J10" s="50"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="64"/>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="H12:P14"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566852B6-B08E-4C58-A8F3-F5FD29A3C094}">
   <dimension ref="B2:BC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1527,64 +1752,64 @@
       <c r="B3" s="18">
         <v>0</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
       <c r="I3" s="18">
         <v>1</v>
       </c>
       <c r="K3" s="18">
         <v>1</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
       <c r="AF3" s="18">
         <v>9</v>
       </c>
       <c r="AH3" s="18">
         <v>2</v>
       </c>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="50"/>
-      <c r="AP3" s="50"/>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="50"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="50"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="49"/>
+      <c r="AT3" s="49"/>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49"/>
       <c r="BC3" s="18">
         <v>4</v>
       </c>
@@ -1774,10 +1999,10 @@
       <c r="K6" s="3"/>
       <c r="L6" s="23"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="49">
+      <c r="N6" s="48">
         <v>7</v>
       </c>
-      <c r="O6" s="41">
+      <c r="O6" s="40">
         <v>8</v>
       </c>
       <c r="P6" s="11">
@@ -1790,7 +2015,7 @@
       <c r="U6" s="9">
         <v>7</v>
       </c>
-      <c r="V6" s="48">
+      <c r="V6" s="47">
         <v>8</v>
       </c>
       <c r="W6" s="11">
@@ -1803,10 +2028,10 @@
       <c r="AB6" s="9">
         <v>7</v>
       </c>
-      <c r="AC6" s="41">
+      <c r="AC6" s="40">
         <v>8</v>
       </c>
-      <c r="AD6" s="47">
+      <c r="AD6" s="46">
         <v>9</v>
       </c>
       <c r="AE6" s="4"/>
@@ -1814,10 +2039,10 @@
       <c r="AH6" s="3"/>
       <c r="AI6" s="23"/>
       <c r="AJ6" s="2"/>
-      <c r="AK6" s="49">
+      <c r="AK6" s="48">
         <v>7</v>
       </c>
-      <c r="AL6" s="41">
+      <c r="AL6" s="40">
         <v>8</v>
       </c>
       <c r="AM6" s="11">
@@ -1830,7 +2055,7 @@
       <c r="AR6" s="9">
         <v>7</v>
       </c>
-      <c r="AS6" s="48">
+      <c r="AS6" s="47">
         <v>8</v>
       </c>
       <c r="AT6" s="11">
@@ -1843,10 +2068,10 @@
       <c r="AY6" s="9">
         <v>7</v>
       </c>
-      <c r="AZ6" s="41">
+      <c r="AZ6" s="40">
         <v>8</v>
       </c>
-      <c r="BA6" s="47">
+      <c r="BA6" s="46">
         <v>9</v>
       </c>
       <c r="BB6" s="4"/>
@@ -1917,7 +2142,7 @@
       <c r="AC7" s="27">
         <v>5</v>
       </c>
-      <c r="AD7" s="37">
+      <c r="AD7" s="36">
         <v>6</v>
       </c>
       <c r="AE7" s="4">
@@ -1935,7 +2160,7 @@
       <c r="AL7" s="27">
         <v>5</v>
       </c>
-      <c r="AM7" s="37">
+      <c r="AM7" s="36">
         <v>6</v>
       </c>
       <c r="AN7" s="4">
@@ -1969,7 +2194,7 @@
       <c r="AZ7" s="27">
         <v>5</v>
       </c>
-      <c r="BA7" s="37">
+      <c r="BA7" s="36">
         <v>6</v>
       </c>
       <c r="BB7" s="4">
@@ -2042,7 +2267,7 @@
       <c r="AL8" s="28">
         <v>2</v>
       </c>
-      <c r="AM8" s="39">
+      <c r="AM8" s="38">
         <v>3</v>
       </c>
       <c r="AN8" s="4"/>
@@ -2172,7 +2397,7 @@
       <c r="BC9" s="4"/>
     </row>
     <row r="10" spans="2:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="51"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -2264,7 +2489,7 @@
       <c r="AM11" s="20"/>
       <c r="AN11" s="21"/>
       <c r="AO11" s="2"/>
-      <c r="AP11" s="52">
+      <c r="AP11" s="51">
         <v>-1</v>
       </c>
       <c r="AQ11" s="19"/>
@@ -2273,7 +2498,7 @@
       <c r="AT11" s="20"/>
       <c r="AU11" s="21"/>
       <c r="AV11" s="2"/>
-      <c r="AW11" s="52">
+      <c r="AW11" s="51">
         <v>-1</v>
       </c>
       <c r="AX11" s="19"/>
@@ -2379,14 +2604,14 @@
       <c r="BC12" s="4"/>
     </row>
     <row r="13" spans="2:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="58"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="60"/>
       <c r="K13" s="3"/>
       <c r="L13" s="23"/>
       <c r="M13" s="2"/>
@@ -2403,13 +2628,13 @@
       <c r="R13" s="2"/>
       <c r="S13" s="23"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="40">
+      <c r="U13" s="39">
         <v>7</v>
       </c>
-      <c r="V13" s="41">
+      <c r="V13" s="40">
         <v>8</v>
       </c>
-      <c r="W13" s="42">
+      <c r="W13" s="41">
         <v>9</v>
       </c>
       <c r="X13" s="4"/>
@@ -2443,13 +2668,13 @@
       <c r="AO13" s="2"/>
       <c r="AP13" s="23"/>
       <c r="AQ13" s="2"/>
-      <c r="AR13" s="40">
+      <c r="AR13" s="39">
         <v>7</v>
       </c>
-      <c r="AS13" s="41">
+      <c r="AS13" s="40">
         <v>8</v>
       </c>
-      <c r="AT13" s="42">
+      <c r="AT13" s="41">
         <v>9</v>
       </c>
       <c r="AU13" s="4"/>
@@ -2482,7 +2707,7 @@
       <c r="M14" s="2">
         <v>1</v>
       </c>
-      <c r="N14" s="44">
+      <c r="N14" s="43">
         <v>4</v>
       </c>
       <c r="O14" s="27">
@@ -2502,10 +2727,10 @@
       <c r="U14" s="26">
         <v>4</v>
       </c>
-      <c r="V14" s="45">
+      <c r="V14" s="44">
         <v>5</v>
       </c>
-      <c r="W14" s="37">
+      <c r="W14" s="36">
         <v>6</v>
       </c>
       <c r="X14" s="4">
@@ -2522,7 +2747,7 @@
       <c r="AC14" s="27">
         <v>5</v>
       </c>
-      <c r="AD14" s="46">
+      <c r="AD14" s="45">
         <v>6</v>
       </c>
       <c r="AE14" s="4">
@@ -2534,13 +2759,13 @@
       <c r="AJ14" s="2">
         <v>1</v>
       </c>
-      <c r="AK14" s="44">
+      <c r="AK14" s="43">
         <v>4</v>
       </c>
       <c r="AL14" s="27">
         <v>5</v>
       </c>
-      <c r="AM14" s="46">
+      <c r="AM14" s="45">
         <v>6</v>
       </c>
       <c r="AN14" s="4">
@@ -2554,10 +2779,10 @@
       <c r="AR14" s="26">
         <v>4</v>
       </c>
-      <c r="AS14" s="45">
+      <c r="AS14" s="44">
         <v>5</v>
       </c>
-      <c r="AT14" s="37">
+      <c r="AT14" s="36">
         <v>6</v>
       </c>
       <c r="AU14" s="4">
@@ -2574,7 +2799,7 @@
       <c r="AZ14" s="27">
         <v>5</v>
       </c>
-      <c r="BA14" s="46">
+      <c r="BA14" s="45">
         <v>6</v>
       </c>
       <c r="BB14" s="4">
@@ -2583,14 +2808,14 @@
       <c r="BC14" s="4"/>
     </row>
     <row r="15" spans="2:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="61"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="57"/>
       <c r="K15" s="3"/>
       <c r="L15" s="23"/>
       <c r="M15" s="2"/>
@@ -2607,13 +2832,13 @@
       <c r="R15" s="2"/>
       <c r="S15" s="23"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="43">
+      <c r="U15" s="42">
         <v>1</v>
       </c>
       <c r="V15" s="28">
         <v>2</v>
       </c>
-      <c r="W15" s="38">
+      <c r="W15" s="37">
         <v>3</v>
       </c>
       <c r="X15" s="4"/>
@@ -2647,13 +2872,13 @@
       <c r="AO15" s="2"/>
       <c r="AP15" s="23"/>
       <c r="AQ15" s="2"/>
-      <c r="AR15" s="43">
+      <c r="AR15" s="42">
         <v>1</v>
       </c>
       <c r="AS15" s="28">
         <v>2</v>
       </c>
-      <c r="AT15" s="38">
+      <c r="AT15" s="37">
         <v>3</v>
       </c>
       <c r="AU15" s="4"/>
@@ -2830,7 +3055,7 @@
       <c r="AE18" s="21"/>
       <c r="AF18" s="4"/>
       <c r="AH18" s="3"/>
-      <c r="AI18" s="52">
+      <c r="AI18" s="51">
         <v>-1</v>
       </c>
       <c r="AJ18" s="19"/>
@@ -2839,7 +3064,7 @@
       <c r="AM18" s="20"/>
       <c r="AN18" s="21"/>
       <c r="AO18" s="2"/>
-      <c r="AP18" s="52">
+      <c r="AP18" s="51">
         <v>-1</v>
       </c>
       <c r="AQ18" s="19"/>
@@ -2848,7 +3073,7 @@
       <c r="AT18" s="20"/>
       <c r="AU18" s="21"/>
       <c r="AV18" s="2"/>
-      <c r="AW18" s="52">
+      <c r="AW18" s="51">
         <v>-1</v>
       </c>
       <c r="AX18" s="19"/>
@@ -2987,10 +3212,10 @@
       <c r="AK20" s="9">
         <v>7</v>
       </c>
-      <c r="AL20" s="41">
+      <c r="AL20" s="40">
         <v>8</v>
       </c>
-      <c r="AM20" s="47">
+      <c r="AM20" s="46">
         <v>9</v>
       </c>
       <c r="AN20" s="4"/>
@@ -3000,7 +3225,7 @@
       <c r="AR20" s="9">
         <v>7</v>
       </c>
-      <c r="AS20" s="48">
+      <c r="AS20" s="47">
         <v>8</v>
       </c>
       <c r="AT20" s="11">
@@ -3010,10 +3235,10 @@
       <c r="AV20" s="2"/>
       <c r="AW20" s="23"/>
       <c r="AX20" s="2"/>
-      <c r="AY20" s="49">
+      <c r="AY20" s="48">
         <v>7</v>
       </c>
-      <c r="AZ20" s="41">
+      <c r="AZ20" s="40">
         <v>8</v>
       </c>
       <c r="BA20" s="11">
@@ -3068,7 +3293,7 @@
       <c r="AC21" s="27">
         <v>5</v>
       </c>
-      <c r="AD21" s="37">
+      <c r="AD21" s="36">
         <v>6</v>
       </c>
       <c r="AE21" s="4">
@@ -3086,7 +3311,7 @@
       <c r="AL21" s="27">
         <v>5</v>
       </c>
-      <c r="AM21" s="37">
+      <c r="AM21" s="36">
         <v>6</v>
       </c>
       <c r="AN21" s="4">
@@ -3120,7 +3345,7 @@
       <c r="AZ21" s="27">
         <v>5</v>
       </c>
-      <c r="BA21" s="37">
+      <c r="BA21" s="36">
         <v>6</v>
       </c>
       <c r="BB21" s="4">
@@ -3164,7 +3389,7 @@
       <c r="AC22" s="28">
         <v>2</v>
       </c>
-      <c r="AD22" s="39">
+      <c r="AD22" s="38">
         <v>3</v>
       </c>
       <c r="AE22" s="4"/>
@@ -3204,7 +3429,7 @@
       <c r="AZ22" s="28">
         <v>2</v>
       </c>
-      <c r="BA22" s="39">
+      <c r="BA22" s="38">
         <v>3</v>
       </c>
       <c r="BB22" s="4"/>
@@ -3293,7 +3518,7 @@
       <c r="BC23" s="4"/>
     </row>
     <row r="24" spans="11:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="K24" s="51"/>
+      <c r="K24" s="50"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -3315,7 +3540,7 @@
       <c r="AD24" s="7"/>
       <c r="AE24" s="7"/>
       <c r="AF24" s="8"/>
-      <c r="AH24" s="51"/>
+      <c r="AH24" s="50"/>
       <c r="AI24" s="7"/>
       <c r="AJ24" s="7"/>
       <c r="AK24" s="7"/>
@@ -3343,26 +3568,26 @@
       <c r="K26" s="18">
         <v>3</v>
       </c>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="50"/>
-      <c r="Z26" s="50"/>
-      <c r="AA26" s="50"/>
-      <c r="AB26" s="50"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="50"/>
-      <c r="AE26" s="50"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="49"/>
+      <c r="AC26" s="49"/>
+      <c r="AD26" s="49"/>
+      <c r="AE26" s="49"/>
       <c r="AF26" s="18">
         <v>8</v>
       </c>
@@ -3443,39 +3668,39 @@
       <c r="K29" s="3"/>
       <c r="L29" s="23"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="49">
+      <c r="N29" s="48">
         <v>7</v>
       </c>
-      <c r="O29" s="41">
+      <c r="O29" s="40">
         <v>8</v>
       </c>
-      <c r="P29" s="47">
+      <c r="P29" s="46">
         <v>9</v>
       </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="2"/>
       <c r="S29" s="23"/>
       <c r="T29" s="2"/>
-      <c r="U29" s="49">
+      <c r="U29" s="48">
         <v>7</v>
       </c>
-      <c r="V29" s="48">
+      <c r="V29" s="47">
         <v>8</v>
       </c>
-      <c r="W29" s="47">
+      <c r="W29" s="46">
         <v>9</v>
       </c>
       <c r="X29" s="4"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="23"/>
       <c r="AA29" s="2"/>
-      <c r="AB29" s="49">
+      <c r="AB29" s="48">
         <v>7</v>
       </c>
-      <c r="AC29" s="41">
+      <c r="AC29" s="40">
         <v>8</v>
       </c>
-      <c r="AD29" s="47">
+      <c r="AD29" s="46">
         <v>9</v>
       </c>
       <c r="AE29" s="4"/>
@@ -3493,7 +3718,7 @@
       <c r="O30" s="27">
         <v>5</v>
       </c>
-      <c r="P30" s="37">
+      <c r="P30" s="36">
         <v>6</v>
       </c>
       <c r="Q30" s="4">
@@ -3510,7 +3735,7 @@
       <c r="V30" s="27">
         <v>5</v>
       </c>
-      <c r="W30" s="37">
+      <c r="W30" s="36">
         <v>6</v>
       </c>
       <c r="X30" s="4">
@@ -3527,7 +3752,7 @@
       <c r="AC30" s="27">
         <v>5</v>
       </c>
-      <c r="AD30" s="37">
+      <c r="AD30" s="36">
         <v>6</v>
       </c>
       <c r="AE30" s="4">
@@ -3571,7 +3796,7 @@
       <c r="AC31" s="28">
         <v>2</v>
       </c>
-      <c r="AD31" s="39">
+      <c r="AD31" s="38">
         <v>3</v>
       </c>
       <c r="AE31" s="4"/>
@@ -3654,7 +3879,7 @@
       <c r="P34" s="20"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="52">
+      <c r="S34" s="51">
         <v>-1</v>
       </c>
       <c r="T34" s="19"/>
@@ -3719,10 +3944,10 @@
       <c r="K36" s="3"/>
       <c r="L36" s="23"/>
       <c r="M36" s="2"/>
-      <c r="N36" s="49">
+      <c r="N36" s="48">
         <v>7</v>
       </c>
-      <c r="O36" s="41">
+      <c r="O36" s="40">
         <v>8</v>
       </c>
       <c r="P36" s="11">
@@ -3732,13 +3957,13 @@
       <c r="R36" s="2"/>
       <c r="S36" s="23"/>
       <c r="T36" s="2"/>
-      <c r="U36" s="40">
+      <c r="U36" s="39">
         <v>7</v>
       </c>
-      <c r="V36" s="41">
+      <c r="V36" s="40">
         <v>8</v>
       </c>
-      <c r="W36" s="42">
+      <c r="W36" s="41">
         <v>9</v>
       </c>
       <c r="X36" s="4"/>
@@ -3748,10 +3973,10 @@
       <c r="AB36" s="9">
         <v>7</v>
       </c>
-      <c r="AC36" s="41">
+      <c r="AC36" s="40">
         <v>8</v>
       </c>
-      <c r="AD36" s="47">
+      <c r="AD36" s="46">
         <v>9</v>
       </c>
       <c r="AE36" s="4"/>
@@ -3763,7 +3988,7 @@
       <c r="M37" s="2">
         <v>1</v>
       </c>
-      <c r="N37" s="44">
+      <c r="N37" s="43">
         <v>4</v>
       </c>
       <c r="O37" s="27">
@@ -3783,10 +4008,10 @@
       <c r="U37" s="26">
         <v>4</v>
       </c>
-      <c r="V37" s="45">
+      <c r="V37" s="44">
         <v>5</v>
       </c>
-      <c r="W37" s="37">
+      <c r="W37" s="36">
         <v>6</v>
       </c>
       <c r="X37" s="4">
@@ -3803,7 +4028,7 @@
       <c r="AC37" s="27">
         <v>5</v>
       </c>
-      <c r="AD37" s="46">
+      <c r="AD37" s="45">
         <v>6</v>
       </c>
       <c r="AE37" s="4">
@@ -3828,13 +4053,13 @@
       <c r="R38" s="2"/>
       <c r="S38" s="23"/>
       <c r="T38" s="2"/>
-      <c r="U38" s="43">
+      <c r="U38" s="42">
         <v>1</v>
       </c>
       <c r="V38" s="28">
         <v>2</v>
       </c>
-      <c r="W38" s="38">
+      <c r="W38" s="37">
         <v>3</v>
       </c>
       <c r="X38" s="4"/>
@@ -3847,7 +4072,7 @@
       <c r="AC38" s="28">
         <v>2</v>
       </c>
-      <c r="AD38" s="39">
+      <c r="AD38" s="38">
         <v>3</v>
       </c>
       <c r="AE38" s="4"/>
@@ -3995,10 +4220,10 @@
       <c r="K43" s="3"/>
       <c r="L43" s="23"/>
       <c r="M43" s="2"/>
-      <c r="N43" s="49">
+      <c r="N43" s="48">
         <v>7</v>
       </c>
-      <c r="O43" s="41">
+      <c r="O43" s="40">
         <v>8</v>
       </c>
       <c r="P43" s="11">
@@ -4024,10 +4249,10 @@
       <c r="AB43" s="9">
         <v>7</v>
       </c>
-      <c r="AC43" s="41">
+      <c r="AC43" s="40">
         <v>8</v>
       </c>
-      <c r="AD43" s="47">
+      <c r="AD43" s="46">
         <v>9</v>
       </c>
       <c r="AE43" s="4"/>
@@ -4045,7 +4270,7 @@
       <c r="O44" s="27">
         <v>5</v>
       </c>
-      <c r="P44" s="37">
+      <c r="P44" s="36">
         <v>6</v>
       </c>
       <c r="Q44" s="4">
@@ -4062,7 +4287,7 @@
       <c r="V44" s="27">
         <v>5</v>
       </c>
-      <c r="W44" s="37">
+      <c r="W44" s="36">
         <v>6</v>
       </c>
       <c r="X44" s="4">
@@ -4079,7 +4304,7 @@
       <c r="AC44" s="27">
         <v>5</v>
       </c>
-      <c r="AD44" s="37">
+      <c r="AD44" s="36">
         <v>6</v>
       </c>
       <c r="AE44" s="4">
@@ -4097,7 +4322,7 @@
       <c r="O45" s="28">
         <v>2</v>
       </c>
-      <c r="P45" s="39">
+      <c r="P45" s="38">
         <v>3</v>
       </c>
       <c r="Q45" s="4"/>
@@ -4110,7 +4335,7 @@
       <c r="V45" s="30">
         <v>2</v>
       </c>
-      <c r="W45" s="39">
+      <c r="W45" s="38">
         <v>3</v>
       </c>
       <c r="X45" s="4"/>
@@ -4123,7 +4348,7 @@
       <c r="AC45" s="28">
         <v>2</v>
       </c>
-      <c r="AD45" s="39">
+      <c r="AD45" s="38">
         <v>3</v>
       </c>
       <c r="AE45" s="4"/>
@@ -4172,7 +4397,7 @@
       <c r="AF46" s="4"/>
     </row>
     <row r="47" spans="11:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="K47" s="51"/>
+      <c r="K47" s="50"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>

--- a/04_memo/memo.xlsx
+++ b/04_memo/memo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\卒業制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BED5BC-F908-4CBF-A8C5-DC329DFAF6B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C67D391-82F5-411B-B305-C7162D22A99D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9552" activeTab="1" xr2:uid="{EA0F8B15-AEAB-4AE2-B6F2-FA280175178B}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>X</t>
     <phoneticPr fontId="3"/>
@@ -66,6 +66,14 @@
     <rPh sb="29" eb="31">
       <t>セイセイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Prev</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Next</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -121,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +178,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -471,7 +491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -628,62 +648,68 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1098,10 +1124,10 @@
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
-      <c r="N8" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="O8" s="52"/>
+      <c r="N8" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="59"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
       <c r="R8" s="25"/>
@@ -1162,10 +1188,10 @@
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
-      <c r="N10" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="O10" s="52"/>
+      <c r="N10" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="59"/>
       <c r="P10" s="25"/>
       <c r="Q10" s="25"/>
       <c r="R10" s="25"/>
@@ -1558,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B93924F-3143-4140-9103-EB813ABFDA17}">
-  <dimension ref="C2:T14"/>
+  <dimension ref="C2:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1570,49 +1596,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:20" x14ac:dyDescent="0.45">
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="3:20" x14ac:dyDescent="0.45">
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="64"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="3:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="3:20" x14ac:dyDescent="0.45">
-      <c r="D5" s="65"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="49"/>
       <c r="F5" s="49"/>
-      <c r="G5" s="66"/>
-      <c r="J5" s="65"/>
+      <c r="G5" s="55"/>
+      <c r="J5" s="54"/>
       <c r="K5" s="49"/>
       <c r="L5" s="49"/>
       <c r="M5" s="49"/>
       <c r="N5" s="49"/>
-      <c r="O5" s="66"/>
+      <c r="O5" s="55"/>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D6" s="3"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="68"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="4"/>
-      <c r="I6" s="69"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
       <c r="O6" s="4"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D7" s="3"/>
@@ -1620,28 +1646,28 @@
       <c r="F7" s="2"/>
       <c r="G7" s="4"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="67"/>
+      <c r="K7" s="56"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="67"/>
+      <c r="N7" s="56"/>
       <c r="O7" s="4"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D8" s="3"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="67"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="4"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="67"/>
+      <c r="K8" s="56"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
       <c r="O8" s="4"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
     </row>
     <row r="9" spans="3:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D9" s="50"/>
@@ -1649,9 +1675,9 @@
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
       <c r="N9" s="2"/>
       <c r="O9" s="4"/>
     </row>
@@ -1667,58 +1693,121 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="70" t="s">
+      <c r="H12" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
     </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="64"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.45">
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+    </row>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.45">
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="52"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+    </row>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.45">
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="71"/>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.45">
+      <c r="E20" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="72"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+    </row>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.45">
+      <c r="E21" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="52"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="52"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.45">
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="H12:P14"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2509,19 +2598,19 @@
       <c r="BC11" s="4"/>
     </row>
     <row r="12" spans="2:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54">
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63">
         <f>I3+AF3+BC3+AF26</f>
         <v>22</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="55"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
       <c r="K12" s="3"/>
       <c r="L12" s="22"/>
       <c r="M12" s="2">
@@ -2604,14 +2693,14 @@
       <c r="BC12" s="4"/>
     </row>
     <row r="13" spans="2:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="61"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="60"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="69"/>
       <c r="K13" s="3"/>
       <c r="L13" s="23"/>
       <c r="M13" s="2"/>
@@ -2694,14 +2783,14 @@
       <c r="BC13" s="4"/>
     </row>
     <row r="14" spans="2:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="55"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
       <c r="K14" s="3"/>
       <c r="L14" s="23"/>
       <c r="M14" s="2">
@@ -2808,14 +2897,14 @@
       <c r="BC14" s="4"/>
     </row>
     <row r="15" spans="2:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="58"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="57"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
       <c r="K15" s="3"/>
       <c r="L15" s="23"/>
       <c r="M15" s="2"/>

--- a/04_memo/memo.xlsx
+++ b/04_memo/memo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\卒業制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C67D391-82F5-411B-B305-C7162D22A99D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8963D3-FE94-4DB4-801D-9FEA2A7E1F71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9552" activeTab="1" xr2:uid="{EA0F8B15-AEAB-4AE2-B6F2-FA280175178B}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>X</t>
     <phoneticPr fontId="3"/>
@@ -74,6 +74,10 @@
   </si>
   <si>
     <t>Next</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NextSet()</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -129,7 +133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +194,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -491,7 +501,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,6 +719,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1584,10 +1609,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B93924F-3143-4140-9103-EB813ABFDA17}">
-  <dimension ref="C2:T22"/>
+  <dimension ref="C2:AJ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1595,7 +1620,7 @@
     <col min="1" max="16384" width="3.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:36" x14ac:dyDescent="0.45">
       <c r="C2" s="60" t="s">
         <v>3</v>
       </c>
@@ -1603,7 +1628,7 @@
       <c r="E2" s="60"/>
       <c r="F2" s="52"/>
     </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:36" x14ac:dyDescent="0.45">
       <c r="C3" s="60" t="s">
         <v>4</v>
       </c>
@@ -1611,8 +1636,8 @@
       <c r="E3" s="60"/>
       <c r="F3" s="53"/>
     </row>
-    <row r="4" spans="3:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:36" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="5" spans="3:36" x14ac:dyDescent="0.45">
       <c r="D5" s="54"/>
       <c r="E5" s="49"/>
       <c r="F5" s="49"/>
@@ -1624,7 +1649,7 @@
       <c r="N5" s="49"/>
       <c r="O5" s="55"/>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:36" x14ac:dyDescent="0.45">
       <c r="D6" s="3"/>
       <c r="E6" s="56"/>
       <c r="F6" s="57"/>
@@ -1640,7 +1665,7 @@
       <c r="S6" s="53"/>
       <c r="T6" s="53"/>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:36" x14ac:dyDescent="0.45">
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1655,7 +1680,7 @@
       <c r="S7" s="53"/>
       <c r="T7" s="53"/>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:36" x14ac:dyDescent="0.45">
       <c r="D8" s="3"/>
       <c r="E8" s="57"/>
       <c r="F8" s="56"/>
@@ -1669,7 +1694,7 @@
       <c r="R8" s="53"/>
       <c r="S8" s="53"/>
     </row>
-    <row r="9" spans="3:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="3:36" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D9" s="50"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1681,7 +1706,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="3:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="3:36" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="J10" s="50"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -1689,7 +1714,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="8"/>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:36" x14ac:dyDescent="0.45">
       <c r="E12" s="1">
         <v>0</v>
       </c>
@@ -1705,7 +1730,7 @@
       <c r="O12" s="60"/>
       <c r="P12" s="60"/>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:36" x14ac:dyDescent="0.45">
       <c r="D13" s="1">
         <v>0</v>
       </c>
@@ -1723,7 +1748,7 @@
       <c r="O13" s="60"/>
       <c r="P13" s="60"/>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:36" x14ac:dyDescent="0.45">
       <c r="E14" s="1">
         <v>0</v>
       </c>
@@ -1737,73 +1762,322 @@
       <c r="O14" s="60"/>
       <c r="P14" s="60"/>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.45">
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-    </row>
-    <row r="17" spans="5:17" x14ac:dyDescent="0.45">
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="52"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-    </row>
-    <row r="18" spans="5:17" x14ac:dyDescent="0.45">
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="71"/>
-    </row>
-    <row r="20" spans="5:17" x14ac:dyDescent="0.45">
-      <c r="E20" s="60" t="s">
+    <row r="15" spans="3:36" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="71"/>
+      <c r="AF15" s="71"/>
+      <c r="AH15" s="71"/>
+      <c r="AI15" s="71"/>
+      <c r="AJ15" s="71"/>
+    </row>
+    <row r="16" spans="3:36" x14ac:dyDescent="0.45">
+      <c r="J16" s="54"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="55"/>
+      <c r="Z16" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA16" s="60"/>
+      <c r="AB16" s="60"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="71"/>
+      <c r="AF16" s="52"/>
+      <c r="AH16" s="77"/>
+      <c r="AI16" s="71"/>
+      <c r="AJ16" s="71"/>
+    </row>
+    <row r="17" spans="5:36" x14ac:dyDescent="0.45">
+      <c r="E17" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="72"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-    </row>
-    <row r="21" spans="5:17" x14ac:dyDescent="0.45">
-      <c r="E21" s="60" t="s">
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="72"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="4"/>
+      <c r="AD17" s="71"/>
+      <c r="AE17" s="71"/>
+      <c r="AF17" s="71"/>
+      <c r="AH17" s="71"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="71"/>
+    </row>
+    <row r="18" spans="5:36" x14ac:dyDescent="0.45">
+      <c r="E18" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="52"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="52"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-    </row>
-    <row r="22" spans="5:17" x14ac:dyDescent="0.45">
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="52"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="5:36" x14ac:dyDescent="0.45">
+      <c r="J19" s="3"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="4"/>
+    </row>
+    <row r="20" spans="5:36" x14ac:dyDescent="0.45">
+      <c r="J20" s="3"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="4"/>
+    </row>
+    <row r="21" spans="5:36" x14ac:dyDescent="0.45">
+      <c r="J21" s="3"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="4"/>
+    </row>
+    <row r="22" spans="5:36" x14ac:dyDescent="0.45">
+      <c r="J22" s="3"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="4"/>
+    </row>
+    <row r="23" spans="5:36" x14ac:dyDescent="0.45">
+      <c r="J23" s="3"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="4"/>
+    </row>
+    <row r="24" spans="5:36" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J24" s="50"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="8"/>
+    </row>
+    <row r="25" spans="5:36" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="26" spans="5:36" x14ac:dyDescent="0.45">
+      <c r="J26" s="54"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="5:36" x14ac:dyDescent="0.45">
+      <c r="J27" s="3"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="5:36" x14ac:dyDescent="0.45">
+      <c r="J28" s="3"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+    </row>
+    <row r="29" spans="5:36" x14ac:dyDescent="0.45">
+      <c r="J29" s="3"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+    </row>
+    <row r="30" spans="5:36" x14ac:dyDescent="0.45">
+      <c r="J30" s="3"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+    </row>
+    <row r="31" spans="5:36" x14ac:dyDescent="0.45">
+      <c r="J31" s="3"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="76"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+    </row>
+    <row r="32" spans="5:36" x14ac:dyDescent="0.45">
+      <c r="J32" s="3"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+    </row>
+    <row r="33" spans="10:22" x14ac:dyDescent="0.45">
+      <c r="J33" s="3"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="10:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J34" s="50"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="Z16:AB16"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="H12:P14"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/04_memo/memo.xlsx
+++ b/04_memo/memo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\卒業制作\Graduation\04_memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\卒業制作01\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8963D3-FE94-4DB4-801D-9FEA2A7E1F71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CF9FEB-B48C-4294-BA1A-5B6B160871B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9552" activeTab="1" xr2:uid="{EA0F8B15-AEAB-4AE2-B6F2-FA280175178B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9552" activeTab="2" xr2:uid="{EA0F8B15-AEAB-4AE2-B6F2-FA280175178B}"/>
   </bookViews>
   <sheets>
     <sheet name="グリットのスクロール処理メモ" sheetId="1" r:id="rId1"/>
@@ -679,6 +679,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -713,27 +734,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1149,10 +1149,10 @@
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
-      <c r="N8" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="O8" s="59"/>
+      <c r="N8" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="66"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
       <c r="R8" s="25"/>
@@ -1213,10 +1213,10 @@
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
-      <c r="N10" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="O10" s="59"/>
+      <c r="N10" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="66"/>
       <c r="P10" s="25"/>
       <c r="Q10" s="25"/>
       <c r="R10" s="25"/>
@@ -1611,7 +1611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B93924F-3143-4140-9103-EB813ABFDA17}">
   <dimension ref="C2:AJ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
@@ -1621,19 +1621,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:36" x14ac:dyDescent="0.45">
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="52"/>
     </row>
     <row r="3" spans="3:36" x14ac:dyDescent="0.45">
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="53"/>
     </row>
     <row r="4" spans="3:36" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -1718,17 +1718,17 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
     </row>
     <row r="13" spans="3:36" x14ac:dyDescent="0.45">
       <c r="D13" s="1">
@@ -1738,37 +1738,37 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
     </row>
     <row r="14" spans="3:36" x14ac:dyDescent="0.45">
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
     </row>
     <row r="15" spans="3:36" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="AD15" s="71"/>
-      <c r="AE15" s="71"/>
-      <c r="AF15" s="71"/>
-      <c r="AH15" s="71"/>
-      <c r="AI15" s="71"/>
-      <c r="AJ15" s="71"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="59"/>
+      <c r="AH15" s="59"/>
+      <c r="AI15" s="59"/>
+      <c r="AJ15" s="59"/>
     </row>
     <row r="16" spans="3:36" x14ac:dyDescent="0.45">
       <c r="J16" s="54"/>
@@ -1784,60 +1784,60 @@
       <c r="T16" s="49"/>
       <c r="U16" s="49"/>
       <c r="V16" s="55"/>
-      <c r="Z16" s="60" t="s">
+      <c r="Z16" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="AA16" s="60"/>
-      <c r="AB16" s="60"/>
-      <c r="AD16" s="71"/>
-      <c r="AE16" s="71"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="59"/>
       <c r="AF16" s="52"/>
-      <c r="AH16" s="77"/>
-      <c r="AI16" s="71"/>
-      <c r="AJ16" s="71"/>
+      <c r="AH16" s="65"/>
+      <c r="AI16" s="59"/>
+      <c r="AJ16" s="59"/>
     </row>
     <row r="17" spans="5:36" x14ac:dyDescent="0.45">
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="72"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="60"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="73"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="61"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="4"/>
-      <c r="AD17" s="71"/>
-      <c r="AE17" s="71"/>
-      <c r="AF17" s="71"/>
-      <c r="AH17" s="71"/>
-      <c r="AI17" s="71"/>
-      <c r="AJ17" s="71"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="59"/>
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="59"/>
+      <c r="AJ17" s="59"/>
     </row>
     <row r="18" spans="5:36" x14ac:dyDescent="0.45">
-      <c r="E18" s="60" t="s">
+      <c r="E18" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
       <c r="H18" s="52"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
       <c r="M18" s="57"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
@@ -1846,13 +1846,13 @@
     </row>
     <row r="19" spans="5:36" x14ac:dyDescent="0.45">
       <c r="J19" s="3"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="73"/>
+      <c r="O19" s="61"/>
       <c r="P19" s="57"/>
-      <c r="Q19" s="73"/>
+      <c r="Q19" s="61"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
@@ -1880,13 +1880,13 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="73"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="61"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="73"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
       <c r="V21" s="4"/>
     </row>
     <row r="22" spans="5:36" x14ac:dyDescent="0.45">
@@ -1895,13 +1895,13 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
       <c r="Q22" s="57"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
       <c r="V22" s="4"/>
     </row>
     <row r="23" spans="5:36" x14ac:dyDescent="0.45">
@@ -1910,13 +1910,13 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="73"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
       <c r="V23" s="4"/>
     </row>
     <row r="24" spans="5:36" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -1952,13 +1952,13 @@
     </row>
     <row r="27" spans="5:36" x14ac:dyDescent="0.45">
       <c r="J27" s="3"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
       <c r="R27" s="4"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
@@ -1967,13 +1967,13 @@
     </row>
     <row r="28" spans="5:36" x14ac:dyDescent="0.45">
       <c r="J28" s="3"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
       <c r="M28" s="57"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
       <c r="R28" s="4"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
@@ -1982,13 +1982,13 @@
     </row>
     <row r="29" spans="5:36" x14ac:dyDescent="0.45">
       <c r="J29" s="3"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="73"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="61"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="73"/>
+      <c r="O29" s="61"/>
       <c r="P29" s="57"/>
-      <c r="Q29" s="73"/>
+      <c r="Q29" s="61"/>
       <c r="R29" s="4"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
@@ -2012,13 +2012,13 @@
     </row>
     <row r="31" spans="5:36" x14ac:dyDescent="0.45">
       <c r="J31" s="3"/>
-      <c r="K31" s="73"/>
+      <c r="K31" s="61"/>
       <c r="L31" s="57"/>
-      <c r="M31" s="73"/>
+      <c r="M31" s="61"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="73"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="61"/>
       <c r="R31" s="4"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
@@ -2027,13 +2027,13 @@
     </row>
     <row r="32" spans="5:36" x14ac:dyDescent="0.45">
       <c r="J32" s="3"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="76"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="64"/>
       <c r="N32" s="2"/>
       <c r="O32" s="57"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
       <c r="R32" s="4"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
@@ -2042,13 +2042,13 @@
     </row>
     <row r="33" spans="10:22" x14ac:dyDescent="0.45">
       <c r="J33" s="3"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
       <c r="R33" s="4"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
@@ -2072,12 +2072,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="Z16:AB16"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="H12:P14"/>
     <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2089,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566852B6-B08E-4C58-A8F3-F5FD29A3C094}">
   <dimension ref="B2:BC47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="K19" workbookViewId="0">
+      <selection activeCell="AH45" sqref="AH45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2103,7 +2103,9 @@
     <col min="26" max="26" width="4.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="34" width="3.19921875" style="1"/>
     <col min="35" max="35" width="3.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="41" width="3.19921875" style="1"/>
+    <col min="36" max="39" width="3.19921875" style="1"/>
+    <col min="40" max="40" width="3.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="3.19921875" style="1"/>
     <col min="42" max="42" width="3.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="43" max="48" width="3.19921875" style="1"/>
     <col min="49" max="49" width="3.3984375" style="1" bestFit="1" customWidth="1"/>
@@ -2527,7 +2529,7 @@
         <v>6</v>
       </c>
       <c r="AN7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO7" s="2"/>
       <c r="AP7" s="23"/>
@@ -2549,7 +2551,7 @@
       <c r="AV7" s="2"/>
       <c r="AW7" s="23"/>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="26">
         <v>4</v>
@@ -2725,11 +2727,11 @@
       </c>
       <c r="AK9" s="7"/>
       <c r="AL9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9" s="7"/>
       <c r="AN9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9" s="2"/>
       <c r="AP9" s="24"/>
@@ -2738,7 +2740,7 @@
       </c>
       <c r="AR9" s="7"/>
       <c r="AS9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="7"/>
       <c r="AU9" s="8">
@@ -2747,11 +2749,11 @@
       <c r="AV9" s="2"/>
       <c r="AW9" s="24"/>
       <c r="AX9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="7"/>
       <c r="AZ9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="7"/>
       <c r="BB9" s="8">
@@ -2872,19 +2874,19 @@
       <c r="BC11" s="4"/>
     </row>
     <row r="12" spans="2:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63">
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70">
         <f>I3+AF3+BC3+AF26</f>
         <v>22</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="64"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="71"/>
       <c r="K12" s="3"/>
       <c r="L12" s="22"/>
       <c r="M12" s="2">
@@ -2967,14 +2969,14 @@
       <c r="BC12" s="4"/>
     </row>
     <row r="13" spans="2:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="70"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="76"/>
       <c r="K13" s="3"/>
       <c r="L13" s="23"/>
       <c r="M13" s="2"/>
@@ -3057,14 +3059,14 @@
       <c r="BC13" s="4"/>
     </row>
     <row r="14" spans="2:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="64"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="71"/>
       <c r="K14" s="3"/>
       <c r="L14" s="23"/>
       <c r="M14" s="2">
@@ -3132,7 +3134,7 @@
         <v>6</v>
       </c>
       <c r="AN14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14" s="2"/>
       <c r="AP14" s="23"/>
@@ -3154,7 +3156,7 @@
       <c r="AV14" s="2"/>
       <c r="AW14" s="23"/>
       <c r="AX14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="26">
         <v>4</v>
@@ -3171,14 +3173,14 @@
       <c r="BC14" s="4"/>
     </row>
     <row r="15" spans="2:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="67"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="66"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="73"/>
       <c r="K15" s="3"/>
       <c r="L15" s="23"/>
       <c r="M15" s="2"/>
@@ -3494,11 +3496,11 @@
       </c>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM19" s="2"/>
       <c r="AN19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="22"/>
@@ -3507,7 +3509,7 @@
       </c>
       <c r="AR19" s="2"/>
       <c r="AS19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="2"/>
       <c r="AU19" s="4">
@@ -3516,11 +3518,11 @@
       <c r="AV19" s="2"/>
       <c r="AW19" s="22"/>
       <c r="AX19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="2"/>
       <c r="AZ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="2"/>
       <c r="BB19" s="4">
@@ -3678,7 +3680,7 @@
         <v>6</v>
       </c>
       <c r="AN21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO21" s="2"/>
       <c r="AP21" s="23"/>
@@ -3700,7 +3702,7 @@
       <c r="AV21" s="2"/>
       <c r="AW21" s="23"/>
       <c r="AX21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="26">
         <v>4</v>
@@ -3997,12 +3999,12 @@
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="22"/>
       <c r="T28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" s="2"/>
       <c r="V28" s="2">
@@ -4010,12 +4012,12 @@
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" s="22"/>
       <c r="AA28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2">
@@ -4090,7 +4092,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="23"/>
       <c r="T30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="26">
         <v>4</v>
@@ -4102,7 +4104,7 @@
         <v>6</v>
       </c>
       <c r="X30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" s="23"/>
@@ -4169,7 +4171,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="24"/>
       <c r="M32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7"/>
       <c r="O32" s="7">
@@ -4203,7 +4205,7 @@
       </c>
       <c r="AD32" s="7"/>
       <c r="AE32" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF32" s="4"/>
     </row>
@@ -4265,11 +4267,11 @@
       <c r="K35" s="3"/>
       <c r="L35" s="22"/>
       <c r="M35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="4">
@@ -4295,11 +4297,11 @@
       </c>
       <c r="AB35" s="2"/>
       <c r="AC35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35" s="4"/>
     </row>
@@ -4445,11 +4447,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="24"/>
       <c r="M39" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="7"/>
       <c r="O39" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="8">
@@ -4475,11 +4477,11 @@
       </c>
       <c r="AB39" s="7"/>
       <c r="AC39" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" s="7"/>
       <c r="AE39" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF39" s="4"/>
     </row>
@@ -4541,7 +4543,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="22"/>
       <c r="M42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2">
@@ -4575,7 +4577,7 @@
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF42" s="4"/>
     </row>
@@ -4642,7 +4644,7 @@
       <c r="R44" s="2"/>
       <c r="S44" s="23"/>
       <c r="T44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" s="26">
         <v>4</v>
@@ -4654,7 +4656,7 @@
         <v>6</v>
       </c>
       <c r="X44" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" s="23"/>
@@ -4729,12 +4731,12 @@
       </c>
       <c r="P46" s="7"/>
       <c r="Q46" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="2"/>
       <c r="S46" s="24"/>
       <c r="T46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" s="7"/>
       <c r="V46" s="7">
@@ -4742,12 +4744,12 @@
       </c>
       <c r="W46" s="7"/>
       <c r="X46" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" s="24"/>
       <c r="AA46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB46" s="7"/>
       <c r="AC46" s="7">
@@ -4796,5 +4798,6 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/04_memo/memo.xlsx
+++ b/04_memo/memo.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\卒業制作01\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CF9FEB-B48C-4294-BA1A-5B6B160871B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F85C819-4C23-4B01-A60C-35B94B334AFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9552" activeTab="2" xr2:uid="{EA0F8B15-AEAB-4AE2-B6F2-FA280175178B}"/>
   </bookViews>
   <sheets>
     <sheet name="グリットのスクロール処理メモ" sheetId="1" r:id="rId1"/>
     <sheet name="傾くときに動くブロック" sheetId="3" r:id="rId2"/>
-    <sheet name="ブロックの地形変更の総数メモ" sheetId="2" r:id="rId3"/>
+    <sheet name="転がる岩について" sheetId="4" r:id="rId3"/>
+    <sheet name="ブロックの地形変更の総数メモ" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>X</t>
     <phoneticPr fontId="3"/>
@@ -78,6 +79,165 @@
   </si>
   <si>
     <t>NextSet()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>現在地</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>上下左右のブロックを見て判断</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウゲサユウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ブロックなし</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ブロックあり</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3パターン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ありあり</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>なしなし</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ありなしorなしあり</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>移動可能幅</t>
+    <rPh sb="0" eb="4">
+      <t>イドウカノウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中心</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>片方の軸のみで考える</t>
+    <rPh sb="0" eb="2">
+      <t>カタホウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>現在の問題点</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>斜め抜けが存在する</t>
+    <rPh sb="0" eb="1">
+      <t>ナナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ブロックのある方向に制限をかけるだけなので
+Ｌ字やＴ字にブロックがないと発生する</t>
+    <rPh sb="7" eb="9">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>解決方法</t>
+    <rPh sb="0" eb="2">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>円の判定から出たときに左右移動か
+上下移動を確定して、範囲制限を行う</t>
+    <rPh sb="0" eb="1">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>サユウイドウ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ジョウゲイドウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>ハンイセイゲン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オコナ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -133,7 +293,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +357,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,7 +667,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,6 +901,141 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,6 +1052,300 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{010D8684-686E-42EA-BD3E-FA188ECD2DBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="5600700"/>
+          <a:ext cx="2194560" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F32C924C-B41E-4F06-AA0D-B80BE6B9A4DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="5829300"/>
+          <a:ext cx="2194560" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5DD03B5-6AF7-4BAB-A64D-8E8A3D5EEC5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4145280" y="4442460"/>
+          <a:ext cx="0" cy="1851660"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CB1C57-DCAE-4FB5-808C-7D7C7277BB1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4389120" y="4442460"/>
+          <a:ext cx="0" cy="1851660"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F76F906-7709-4EAE-9F00-2F9DB2A85521}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4099560" y="5539740"/>
+          <a:ext cx="335280" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>                                                                                                                                                                 </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1611,7 +2206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B93924F-3143-4140-9103-EB813ABFDA17}">
   <dimension ref="C2:AJ34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
@@ -2086,10 +2681,420 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8B9662-E768-4089-B039-A3AD511CCD36}">
+  <dimension ref="D2:AC32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="4:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="4:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D3" s="116"/>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="4:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AA4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="4:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D5" s="117"/>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="79"/>
+      <c r="P5" s="80"/>
+      <c r="U5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="4:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J6" s="79"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="79"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="80"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="99"/>
+      <c r="X6" s="91"/>
+      <c r="Y6" s="91"/>
+      <c r="Z6" s="91"/>
+      <c r="AA6" s="97"/>
+      <c r="AB6" s="98"/>
+      <c r="AC6" s="99"/>
+    </row>
+    <row r="7" spans="4:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D7" s="118"/>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="79"/>
+      <c r="P7" s="80"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="101"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="100"/>
+      <c r="AB7" s="101"/>
+      <c r="AC7" s="102"/>
+    </row>
+    <row r="8" spans="4:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J8" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="O8" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="95"/>
+      <c r="Y8" s="95"/>
+      <c r="Z8" s="95"/>
+      <c r="AA8" s="103"/>
+      <c r="AB8" s="104"/>
+      <c r="AC8" s="105"/>
+    </row>
+    <row r="9" spans="4:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D9" s="79"/>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="4:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="U10" s="106"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="106"/>
+      <c r="AB10" s="107"/>
+      <c r="AC10" s="108"/>
+    </row>
+    <row r="11" spans="4:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D11" s="80"/>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11" s="109"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="119"/>
+      <c r="Y11" s="115"/>
+      <c r="Z11" s="119"/>
+      <c r="AA11" s="109"/>
+      <c r="AB11" s="110"/>
+      <c r="AC11" s="111"/>
+    </row>
+    <row r="12" spans="4:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="U12" s="112"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="114"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="112"/>
+      <c r="AB12" s="113"/>
+      <c r="AC12" s="114"/>
+    </row>
+    <row r="13" spans="4:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="U13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="4:29" x14ac:dyDescent="0.45">
+      <c r="U14" s="97"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="99"/>
+      <c r="X14" s="91"/>
+      <c r="Y14" s="91"/>
+      <c r="Z14" s="91"/>
+      <c r="AA14" s="106"/>
+      <c r="AB14" s="107"/>
+      <c r="AC14" s="108"/>
+    </row>
+    <row r="15" spans="4:29" x14ac:dyDescent="0.45">
+      <c r="U15" s="100"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="115"/>
+      <c r="Z15" s="119"/>
+      <c r="AA15" s="109"/>
+      <c r="AB15" s="110"/>
+      <c r="AC15" s="111"/>
+    </row>
+    <row r="16" spans="4:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="U16" s="103"/>
+      <c r="V16" s="104"/>
+      <c r="W16" s="105"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="112"/>
+      <c r="AB16" s="113"/>
+      <c r="AC16" s="114"/>
+    </row>
+    <row r="18" spans="4:29" x14ac:dyDescent="0.45">
+      <c r="U18" s="110"/>
+      <c r="V18" s="110"/>
+      <c r="W18" s="110"/>
+      <c r="X18" s="110"/>
+      <c r="Y18" s="110"/>
+      <c r="Z18" s="110"/>
+      <c r="AA18" s="110"/>
+      <c r="AB18" s="110"/>
+      <c r="AC18" s="110"/>
+    </row>
+    <row r="19" spans="4:29" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>23</v>
+      </c>
+      <c r="U19" s="110"/>
+      <c r="V19" s="110"/>
+      <c r="W19" s="110"/>
+      <c r="X19" s="110"/>
+      <c r="Y19" s="110"/>
+      <c r="Z19" s="110"/>
+      <c r="AA19" s="110"/>
+      <c r="AB19" s="110"/>
+      <c r="AC19" s="110"/>
+    </row>
+    <row r="20" spans="4:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="U20" s="110"/>
+      <c r="V20" s="110"/>
+      <c r="W20" s="110"/>
+      <c r="X20" s="110"/>
+      <c r="Y20" s="110"/>
+      <c r="Z20" s="110"/>
+      <c r="AA20" s="110"/>
+      <c r="AB20" s="110"/>
+      <c r="AC20" s="110"/>
+    </row>
+    <row r="21" spans="4:29" x14ac:dyDescent="0.45">
+      <c r="D21" s="81"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="83"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="82"/>
+      <c r="S21" s="83"/>
+    </row>
+    <row r="22" spans="4:29" x14ac:dyDescent="0.45">
+      <c r="D22" s="109"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="86"/>
+      <c r="Q22" s="109"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="86"/>
+    </row>
+    <row r="23" spans="4:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="89"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="89"/>
+    </row>
+    <row r="24" spans="4:29" x14ac:dyDescent="0.45">
+      <c r="D24" s="90"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="83"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="120"/>
+      <c r="S24" s="121"/>
+      <c r="T24" s="81"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="83"/>
+    </row>
+    <row r="25" spans="4:29" x14ac:dyDescent="0.45">
+      <c r="D25" s="92"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="86"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="115"/>
+      <c r="S25" s="122"/>
+      <c r="T25" s="84"/>
+      <c r="U25" s="85"/>
+      <c r="V25" s="86"/>
+    </row>
+    <row r="26" spans="4:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D26" s="94"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="89"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="89"/>
+    </row>
+    <row r="28" spans="4:29" x14ac:dyDescent="0.45">
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="4:29" x14ac:dyDescent="0.45">
+      <c r="D29" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="Q29" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="67"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="67"/>
+      <c r="V29" s="67"/>
+      <c r="W29" s="67"/>
+      <c r="X29" s="67"/>
+      <c r="Y29" s="67"/>
+      <c r="Z29" s="67"/>
+      <c r="AA29" s="67"/>
+      <c r="AB29" s="67"/>
+    </row>
+    <row r="30" spans="4:29" x14ac:dyDescent="0.45">
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="Q30" s="67"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="67"/>
+      <c r="V30" s="67"/>
+      <c r="W30" s="67"/>
+      <c r="X30" s="67"/>
+      <c r="Y30" s="67"/>
+      <c r="Z30" s="67"/>
+      <c r="AA30" s="67"/>
+      <c r="AB30" s="67"/>
+    </row>
+    <row r="31" spans="4:29" x14ac:dyDescent="0.45">
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="Q31" s="67"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="67"/>
+      <c r="T31" s="67"/>
+      <c r="U31" s="67"/>
+      <c r="V31" s="67"/>
+      <c r="W31" s="67"/>
+      <c r="X31" s="67"/>
+      <c r="Y31" s="67"/>
+      <c r="Z31" s="67"/>
+      <c r="AA31" s="67"/>
+      <c r="AB31" s="67"/>
+    </row>
+    <row r="32" spans="4:29" x14ac:dyDescent="0.45">
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="Q32" s="67"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="67"/>
+      <c r="U32" s="67"/>
+      <c r="V32" s="67"/>
+      <c r="W32" s="67"/>
+      <c r="X32" s="67"/>
+      <c r="Y32" s="67"/>
+      <c r="Z32" s="67"/>
+      <c r="AA32" s="67"/>
+      <c r="AB32" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="D29:O32"/>
+    <mergeCell ref="Q29:AB32"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566852B6-B08E-4C58-A8F3-F5FD29A3C094}">
   <dimension ref="B2:BC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K19" workbookViewId="0">
+    <sheetView topLeftCell="K19" workbookViewId="0">
       <selection activeCell="AH45" sqref="AH45"/>
     </sheetView>
   </sheetViews>
